--- a/exlfiles/result_connected_all.xlsx
+++ b/exlfiles/result_connected_all.xlsx
@@ -359,8 +359,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
@@ -499,8 +499,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
@@ -514,30 +514,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>4</v>
-      </c>
-      <c r="F1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -635,8 +635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
@@ -685,15 +685,33 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -701,17 +719,32 @@
       <c r="A3" t="n">
         <v>10</v>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -721,20 +754,26 @@
       <c r="A4" t="n">
         <v>39</v>
       </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -743,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -753,23 +792,29 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -779,10 +824,25 @@
       <c r="A6" t="n">
         <v>14</v>
       </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -790,23 +850,41 @@
       </c>
       <c r="J6" t="n">
         <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="n">
         <v>33</v>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -816,20 +894,26 @@
       <c r="A8" t="n">
         <v>21</v>
       </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -838,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -848,23 +932,29 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -877,23 +967,29 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -903,20 +999,26 @@
       <c r="A11" t="n">
         <v>11</v>
       </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -925,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +1036,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
@@ -983,31 +1085,70 @@
       <c r="A2" t="n">
         <v>23</v>
       </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="n">
         <v>10</v>
       </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1015,21 +1156,69 @@
         <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
         <v>44</v>
       </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1037,30 +1226,69 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="n">
         <v>33</v>
       </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1068,32 +1296,104 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="n">
         <v>66</v>
       </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="n">
         <v>88</v>
       </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1101,10 +1401,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1113,8 +1437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
@@ -1162,11 +1486,35 @@
       <c r="A2" t="n">
         <v>23</v>
       </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1174,31 +1522,139 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="n">
         <v>39</v>
       </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
         <v>44</v>
       </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="n">
         <v>14</v>
       </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1206,30 +1662,174 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="n">
         <v>21</v>
       </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="n">
         <v>66</v>
       </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="n">
         <v>88</v>
       </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="n">
         <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,8 +1838,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>

--- a/exlfiles/result_connected_all.xlsx
+++ b/exlfiles/result_connected_all.xlsx
@@ -68,7 +68,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -359,11 +359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -499,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -635,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1036,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1437,11 +1437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1838,11 +1838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
